--- a/templates/Excel/ST3/ST3_Tool_Monitoring.xlsx
+++ b/templates/Excel/ST3/ST3_Tool_Monitoring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,105 +446,225 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF1_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_TF_Check Fixture_OBS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF1_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_TF_Check Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF2_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_TF_Check the Tip of the Fixture_OBS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF2_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_TF_Check the Tip of the Fixture_Life_cnt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF3_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_TF_Check Fixture wear out_OBS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF3_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_TF_Check Fixture wear out_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF1_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_BF_Check Fixture_OBS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF1_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_BF_Check Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF2_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_BF_Check the Tip of the Fixture_OBS</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF2_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_BF_Check the Tip of the Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF3_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_BF_Check Fixture wear out_OBS</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF3_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_BF_Check Fixture wear out_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF1_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_SN_Check Nozzle_OBS</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF1_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_SN_Check Nozzle_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF2_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_SN_Check the Holes of the Nozzle_OBS</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF2_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_SN_Check the Holes of the Nozzle_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF3_Tool_Life_OBS</t>
+          <t>Cap Handle Oiling_SN_Check Nozzle wear out_OBS</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF3_Tool_Life_cnt</t>
+          <t>Cap Handle Oiling_SN_Check Nozzle wear out_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Cap Handle and Threaded ferrule Assembly_BF_Check Fixture_OBS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_BF_Check Fixture_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_BF_Check the Tip of the Fixture_OBS</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_BF_Check the Tip of the Fixture_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_BF_Check Fixture wear out_OBS</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_BF_Check Fixture wear out_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_SPD_Check the Dolly_OBS</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_SPD_Check the Dolly_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_SPD_Check the Tip of the Dolly_OBS</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_SPD_Check the Tip of the Dolly_cnt</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_SPD_Check Dolly wear out_OBS</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_SPD_Check Dolly wear out_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_PF_Check Fixture_OBS</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_PF_Check Fixture_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_PF_Check Fixture of the Fixture_OBS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_PF_Check Fixture of the Fixture_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_PF_Check Fixture wear out_OBS</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_PF_Check Fixture wear out_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_FCG_Check Gripper_OBS</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_FCG_Check Gripper_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_FCG_Check the Tip of the Gripper_OBS</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_FCG_Check the Tip of the Gripper_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_FCG_Check Gripper wear out_OBS</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Cap Handle and Threaded ferrule Assembly_FCG_Check Gripper wear out_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>Remark</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>QA-Sign</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Engg-Sign</t>
         </is>
@@ -553,12 +673,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-31T14:46</t>
+          <t>2025-02-06T12:57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHIFT2</t>
+          <t>SHIFT3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -568,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -578,7 +698,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -588,7 +708,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -598,7 +718,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -608,7 +728,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -618,7 +738,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -628,7 +748,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -638,7 +758,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -648,22 +768,142 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>9</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>222</t>
         </is>
       </c>
     </row>
